--- a/0314 APIspec.xlsx
+++ b/0314 APIspec.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20055" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20052" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <r>
       <t>A_Name</t>
@@ -302,6 +302,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -412,6 +414,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -519,61 +523,71 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-/admin/{id}/event (get,post)
-/admin/{id}/event{no}  (put,delete) </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-/admin/{id}/event/{no}/item (get,post)
-/amdin/{id}/event/{no}/item{no} (put,delete)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
 /user/{id}/event{id}/item (get,post)
 /user/{id}/event (get)</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+/admin/{adminId}/event/{eventNo}/item (get,post)
+/admin/{adminId}/event/{eventNo}/item/{itemNo} (put,delete)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+/admin/{adminId}/event (get,post)
+/admin/{adminId}/event/{eventNo}  (put,delete) </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_id
+not null
+int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -702,13 +716,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,49 +749,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,30 +1101,30 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.125" customWidth="1"/>
+    <col min="4" max="4" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="50.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1109,12 +1137,12 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1127,20 +1155,20 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -1153,15 +1181,17 @@
       <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="12"/>
+        <v>39</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1178,18 +1208,21 @@
         <v>8</v>
       </c>
       <c r="F7" s="1"/>
+      <c r="G7" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -1202,14 +1235,14 @@
       <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1227,27 +1260,27 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1277,7 +1310,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -1291,7 +1324,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/0314 APIspec.xlsx
+++ b/0314 APIspec.xlsx
@@ -84,22 +84,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">E_StartTime      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> not null
-string</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">A_Company         
 </t>
     </r>
@@ -218,7 +202,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>E_NO</t>
+      <t>I_NO</t>
     </r>
     <r>
       <rPr>
@@ -244,7 +228,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>E_NAME</t>
+      <t>I_NAME</t>
     </r>
     <r>
       <rPr>
@@ -270,17 +254,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">E_EndTime    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">                     not null
+      <t xml:space="preserve">I_E_NAME </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">                    not null
 string</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -295,42 +279,200 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>E_PeopleCnt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">      not null
+      <t xml:space="preserve">I_GetTime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I_IMG           
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> not null(기본값)             string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>U_PhoneNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+not null
+String</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">parameter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+/admin (get)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+/user/{id}/event{id}/item (get,post)
+/user/{id}/event (get)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+/admin/{adminId}/event/{eventNo}/item (get,post)
+/admin/{adminId}/event/{eventNo}/item/{itemNo} (put,delete)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+/admin/{adminId}/event (get,post)
+/admin/{adminId}/event/{eventNo}  (put,delete) </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminId
+not null
 int</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>I_NO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>E_NO</t>
     </r>
     <r>
       <rPr>
@@ -356,7 +498,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>I_NAME</t>
+      <t>E_NAME</t>
     </r>
     <r>
       <rPr>
@@ -374,25 +516,17 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">I_E_NAME </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">                    not null
+      <t xml:space="preserve">E_StartTime      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> not null
 string</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -407,187 +541,44 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">I_GetTime </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>not null
+      <t xml:space="preserve">E_EndTime    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">                     not null
 string</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">I_IMG           
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> not null(기본값)             string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>U_PhoneNumber</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-not null
-String</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">parameter
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-/admin (get)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-/user/{id}/event{id}/item (get,post)
-/user/{id}/event (get)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-/admin/{adminId}/event/{eventNo}/item (get,post)
-/admin/{adminId}/event/{eventNo}/item/{itemNo} (put,delete)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-/admin/{adminId}/event (get,post)
-/admin/{adminId}/event/{eventNo}  (put,delete) </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_id
-not null
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>E_PeopleCnt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">       not null
 int</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1101,7 +1092,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1126,19 +1117,19 @@
     </row>
     <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -1170,25 +1161,25 @@
     </row>
     <row r="6" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1209,7 +1200,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1224,22 +1215,22 @@
     </row>
     <row r="10" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1253,10 +1244,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1270,22 +1261,22 @@
     </row>
     <row r="14" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>

--- a/0314 APIspec.xlsx
+++ b/0314 APIspec.xlsx
@@ -16,10 +16,253 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <r>
-      <t>A_Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>이벤트이름</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>상품이름</t>
+  </si>
+  <si>
+    <t>관리자비번</t>
+  </si>
+  <si>
+    <t>관리자소속</t>
+  </si>
+  <si>
+    <t>종료시간</t>
+  </si>
+  <si>
+    <t>참가자수</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>상품번호</t>
+  </si>
+  <si>
+    <t>상품사진</t>
+  </si>
+  <si>
+    <t>이벤트번호</t>
+  </si>
+  <si>
+    <t>관리자이름</t>
+  </si>
+  <si>
+    <t>관리자ID</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>시작시간</t>
+  </si>
+  <si>
+    <t>참가번호</t>
+  </si>
+  <si>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>상품QR찍은시간</t>
+  </si>
+  <si>
+    <t>해당이벤트관련한 상품이름</t>
+  </si>
+  <si>
+    <t>관리자번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+/users/{u_no}/events/{e_no}/items (post)
+/events/{e_no}/items (get)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+/admins/{adminId}/events (get,post)
+/admins/{adminId}/events/{e_no}  (put,delete) 
+/events/{e_no} (get)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">parameter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+/admins (get)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+Web
+/admins/{adminId}/events/{e_no}/items(get,post)
+/admins/{adminId}/events/{e_no}/items/{i_no} (put,delete)
+APP
+/events/{e_no}/items(get)
+/events/{e_no}/items/{i_no}/users/{u_phonenumber} (put}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>a_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+primary key
+int</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>a_pw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a_company         
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a_name</t>
     </r>
     <r>
       <rPr>
@@ -33,124 +276,19 @@
 not null
 string</t>
     </r>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>이벤트이름</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>상품이름</t>
-  </si>
-  <si>
-    <t>관리자비번</t>
-  </si>
-  <si>
-    <t>관리자소속</t>
-  </si>
-  <si>
-    <t>종료시간</t>
-  </si>
-  <si>
-    <t>참가자수</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>상품번호</t>
-  </si>
-  <si>
-    <t>상품사진</t>
-  </si>
-  <si>
-    <t>이벤트번호</t>
-  </si>
-  <si>
-    <t>관리자이름</t>
-  </si>
-  <si>
-    <t>관리자ID</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>시작시간</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A_Company         
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>not null
-string</t>
-    </r>
-  </si>
-  <si>
-    <t>참가번호</t>
-  </si>
-  <si>
-    <t>전화번호</t>
-  </si>
-  <si>
-    <t>상품QR찍은시간</t>
-  </si>
-  <si>
-    <t>해당이벤트관련한 상품이름</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">U_no
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">pk
-not null  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>A_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e_no</t>
     </r>
     <r>
       <rPr>
@@ -170,13 +308,13 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>A_PW</t>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e_name</t>
     </r>
     <r>
       <rPr>
@@ -194,15 +332,82 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>I_NO</t>
+      <t xml:space="preserve">e_starttime      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">e_endtime    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">                     not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e_peoplecnt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">       not null
+int</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>i_no</t>
     </r>
     <r>
       <rPr>
@@ -228,7 +433,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>I_NAME</t>
+      <t>i_name</t>
     </r>
     <r>
       <rPr>
@@ -246,25 +451,43 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">I_E_NAME </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">                    not null
+      <t xml:space="preserve">i_img           
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> not null(기본값)             string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">i_e_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">             
+not null
 string</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -279,7 +502,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">I_GetTime </t>
+      <t xml:space="preserve">i_gettime </t>
     </r>
     <r>
       <rPr>
@@ -290,6 +513,14 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
+not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">u_no
 </t>
     </r>
     <r>
@@ -300,39 +531,33 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I_IMG           
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> not null(기본값)             string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>U_PhoneNumber</t>
+      <t xml:space="preserve">pk
+not null  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>u_phonenumber</t>
     </r>
     <r>
       <rPr>
@@ -349,236 +574,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">parameter
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-/admin (get)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-/user/{id}/event{id}/item (get,post)
-/user/{id}/event (get)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-/admin/{adminId}/event/{eventNo}/item (get,post)
-/admin/{adminId}/event/{eventNo}/item/{itemNo} (put,delete)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-/admin/{adminId}/event (get,post)
-/admin/{adminId}/event/{eventNo}  (put,delete) </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자번호</t>
+    <t>u_e_no
+not null
+String</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>adminId
 not null
 int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>E_NO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-primary key
-int</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>E_NAME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">E_StartTime      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">E_EndTime    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">                     not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>E_PeopleCnt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">       not null
-int</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -718,13 +726,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,6 +808,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1105,9 +1135,9 @@
     <col min="6" max="6" width="61.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1115,43 +1145,43 @@
       <c r="E1" s="18"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1159,53 +1189,54 @@
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="87" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="12" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1213,77 +1244,85 @@
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:F5"/>

--- a/0314 APIspec.xlsx
+++ b/0314 APIspec.xlsx
@@ -117,33 +117,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-/admins/{adminId}/events (get,post)
-/admins/{adminId}/events/{e_no}  (put,delete) 
-/events/{e_no} (get)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t xml:space="preserve">parameter
 </t>
     </r>
@@ -587,6 +560,35 @@
     <t>adminId
 not null
 int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+Web
+/admins/{adminId}/events (get,post)
+/admins/{adminId}/events/{e_no}  (put,delete) 
+App
+/events/{e_no} (get)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -785,6 +787,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -808,15 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,30 +1138,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -1180,36 +1182,36 @@
       <c r="F3" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="8"/>
     </row>
@@ -1235,33 +1237,33 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:8" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1283,27 +1285,27 @@
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1313,12 +1315,12 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/0314 APIspec.xlsx
+++ b/0314 APIspec.xlsx
@@ -449,32 +449,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">i_e_name </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">             
-not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t xml:space="preserve">i_gettime </t>
     </r>
     <r>
@@ -588,6 +562,32 @@
 /admins/{adminId}/events/{e_no}  (put,delete) 
 App
 /events/{e_no} (get)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>i_e_no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">         
+not null
+string</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1208,10 +1208,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="8"/>
     </row>
@@ -1257,10 +1257,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>23</v>
@@ -1294,13 +1294,13 @@
     </row>
     <row r="14" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>21</v>
@@ -1316,7 +1316,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>

--- a/0314 APIspec.xlsx
+++ b/0314 APIspec.xlsx
@@ -91,32 +91,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-/users/{u_no}/events/{e_no}/items (post)
-/events/{e_no}/items (get)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t xml:space="preserve">parameter
 </t>
     </r>
@@ -130,6 +104,434 @@
       </rPr>
       <t xml:space="preserve">
 /admins (get)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>a_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+primary key
+int</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>a_pw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a_company         
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">                   
+not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e_no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+primary key
+int</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e_starttime      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">e_endtime    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">                     not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e_peoplecnt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">       not null
+int</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>i_no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+primary key
+int</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>i_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">i_img           
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> not null(기본값)             string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">i_gettime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+not null
+string</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">u_no
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">pk
+not null  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>u_phonenumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+not null
+String</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_e_no
+not null
+String</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminId
+not null
+int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+Web
+/admins/{adminId}/events (get,post)
+/admins/{adminId}/events/{e_no}  (put,delete) 
+App
+/events/{e_no} (get)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>i_e_no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">         
+not null
+int</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -164,431 +566,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>a_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-primary key
-int</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>a_pw</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a_company         
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>a_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">                   
-not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e_no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-primary key
-int</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">e_starttime      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">e_endtime    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">                     not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e_peoplecnt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">       not null
-int</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>i_no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-primary key
-int</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>i_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">i_img           
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> not null(기본값)             string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">i_gettime </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-not null
-string</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">u_no
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">pk
-not null  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>u_phonenumber</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-not null
-String</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_e_no
-not null
-String</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminId
-not null
-int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-Web
-/admins/{adminId}/events (get,post)
-/admins/{adminId}/events/{e_no}  (put,delete) 
-App
-/events/{e_no} (get)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>i_e_no</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">         
-not null
-string</t>
-    </r>
+    <t>parameter
+/users/{u_phonenumber} (post)
+/users/{u_no}/events/{e_no}/items (put)
+/events/{e_no}/items (get)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -728,26 +709,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,12 +756,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1123,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1138,30 +1100,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="54" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -1182,36 +1144,36 @@
       <c r="F3" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H6" s="8"/>
     </row>
@@ -1237,33 +1199,33 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1285,27 +1247,27 @@
       <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="17"/>
+      <c r="D14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1316,14 +1278,15 @@
         <v>17</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="15"/>
       <c r="F15" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A1:E1"/>

--- a/0314 APIspec.xlsx
+++ b/0314 APIspec.xlsx
@@ -536,40 +536,40 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-Web
-/admins/{adminId}/events/{e_no}/items(get,post)
-/admins/{adminId}/events/{e_no}/items/{i_no} (put,delete)
-APP
-/events/{e_no}/items(get)
-/events/{e_no}/items/{i_no}/users/{u_phonenumber} (put}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>parameter
 /users/{u_phonenumber} (post)
 /users/{u_no}/events/{e_no}/items (put)
 /events/{e_no}/items (get)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+Web
+/admins/{adminId}/events/{i_e_no}/items(get,post)
+/admins/{adminId}/events/{i_e_no}/items/{i_no} (put,delete)
+APP
+/events/{e_no}/items(get)
+/events/{e_no}/items/{i_no}/users/{u_phonenumber} (put}</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1225,7 +1225,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1265,7 +1265,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="7"/>

--- a/0314 APIspec.xlsx
+++ b/0314 APIspec.xlsx
@@ -490,35 +490,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>parameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-Web
-/admins/{adminId}/events (get,post)
-/admins/{adminId}/events/{e_no}  (put,delete) 
-App
-/events/{e_no} (get)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>i_e_no</t>
     </r>
     <r>
@@ -537,9 +508,9 @@
   </si>
   <si>
     <t>parameter
-/users/{u_phonenumber} (post)
-/users/{u_no}/events/{e_no}/items (put)
-/events/{e_no}/items (get)</t>
+/av/events/{e_no}/users (post)
+/av/events/{e_no}/users/{u_phonenumber} (get)
+/av/events/{e_no}/users/{u_no}/items (put)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -564,11 +535,40 @@
       </rPr>
       <t xml:space="preserve">
 Web
-/admins/{adminId}/events/{i_e_no}/items(get,post)
-/admins/{adminId}/events/{i_e_no}/items/{i_no} (put,delete)
+/mv/admins/{adminId}/events (get,post)
+/mv/admins/{adminId}/events/{e_no}  (put,delete) 
+App
+/mv/events/{e_no} (get)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+Web
+/mv/admins/{adminId}/events/{i_e_no}/items(get,post)
+/mv/admins/{adminId}/events/{i_e_no}/items/{i_no} (put,delete)
 APP
-/events/{e_no}/items(get)
-/events/{e_no}/items/{i_no}/users/{u_phonenumber} (put}</t>
+/av/events/{e_no}/items(get)
+/av/events/{e_no}/items/{i_no}/users/{u_phonenumber} (put}</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1170,7 +1170,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>39</v>
@@ -1219,7 +1219,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>34</v>
@@ -1265,7 +1265,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="7"/>

--- a/0314 APIspec.xlsx
+++ b/0314 APIspec.xlsx
@@ -564,8 +564,8 @@
       </rPr>
       <t xml:space="preserve">
 Web
-/mv/admins/{adminId}/events/{i_e_no}/items(get,post)
-/mv/admins/{adminId}/events/{i_e_no}/items/{i_no} (put,delete)
+/mv/admins/{adminId}/events/{e_no}/items(get,post)
+/mv/admins/{adminId}/events/{e_no}/items/{i_no} (put,delete)
 APP
 /av/events/{e_no}/items(get)
 /av/events/{e_no}/items/{i_no}/users/{u_phonenumber} (put}</t>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
